--- a/server/LISTAS/mi/CINTA EMBALAR.xlsx
+++ b/server/LISTAS/mi/CINTA EMBALAR.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>

--- a/server/LISTAS/mi/CINTA EMBALAR.xlsx
+++ b/server/LISTAS/mi/CINTA EMBALAR.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>

--- a/server/LISTAS/mi/CINTA EMBALAR.xlsx
+++ b/server/LISTAS/mi/CINTA EMBALAR.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -934,19 +934,19 @@
       </c>
       <c r="C19" s="10" t="n"/>
       <c r="D19" s="18" t="n">
-        <v>440</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CINTA EMBALAR.xlsx
+++ b/server/LISTAS/mi/CINTA EMBALAR.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>

--- a/server/LISTAS/mi/CINTA EMBALAR.xlsx
+++ b/server/LISTAS/mi/CINTA EMBALAR.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -934,19 +934,19 @@
       </c>
       <c r="C19" s="10" t="n"/>
       <c r="D19" s="18" t="n">
-        <v>1051</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CINTA EMBALAR.xlsx
+++ b/server/LISTAS/mi/CINTA EMBALAR.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -939,14 +939,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CINTA EMBALAR.xlsx
+++ b/server/LISTAS/mi/CINTA EMBALAR.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -939,14 +939,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CINTA EMBALAR.xlsx
+++ b/server/LISTAS/mi/CINTA EMBALAR.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -939,14 +939,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/CINTA EMBALAR.xlsx
+++ b/server/LISTAS/mi/CINTA EMBALAR.xlsx
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="2" t="n"/>
     </row>
@@ -934,19 +934,19 @@
       </c>
       <c r="C19" s="10" t="n"/>
       <c r="D19" s="18" t="n">
-        <v>440</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
